--- a/your-project/Shopping Survey.xlsx
+++ b/your-project/Shopping Survey.xlsx
@@ -494,10 +494,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
